--- a/backend/riwayat_simulasi_cs.xlsx
+++ b/backend/riwayat_simulasi_cs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +619,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>Status dihubungi?</t>
@@ -630,10 +629,6 @@
           <t>Bisa Dihubungi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>2025-09-08 22:10:52</t>
@@ -651,7 +646,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
@@ -662,13 +656,3522 @@
           <t>Lupa bayar</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>2025-09-08 22:10:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:33:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:33:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:42:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:48:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:50:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu memiliki data yang harus dikirim?</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tidak ada data</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu memiliki data yang harus dikirim?</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tidak ada data</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin mengubah paket layanan?</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin upgrade</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu memiliki data yang harus dikirim?</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Tidak ada data</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin mengubah paket layanan?</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin upgrade</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin mengetahui lebih lanjut tentang</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin tahu lebih lanjut</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu memiliki data yang harus dikirim?</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Tidak ada data</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin mengubah paket layanan?</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin upgrade</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin mengetahui lebih lanjut tentang</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin tahu lebih lanjut</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki masalah khusus yang ingin</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu memiliki data yang harus dikirim?</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Tidak ada data</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin mengubah paket layanan?</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin upgrade</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin mengetahui lebih lanjut tentang</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin tahu lebih lanjut</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki masalah khusus yang ingin</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Apa yang menyebabkan koneksi lambat?</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Jaringan</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Apakah layanan internet Bapak/Ibu sedang stabil?</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Terkadang putus</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu memiliki data yang harus dikirim?</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Tidak ada data</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin mengubah paket layanan?</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin upgrade</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin mengetahui lebih lanjut tentang</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Ya, saya ingin tahu lebih lanjut</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki masalah khusus yang ingin</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Apa yang menyebabkan koneksi lambat?</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Jaringan</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami melakukan konfigurasi ulang</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Tidak, saya sudah cukup</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-09-09 01:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:01:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:02:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Promo menarik</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:02:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:05:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:05:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Apakah Tagihan Tinggi Dapat Berpengaruh Pada Layanan</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Mungkin</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:05:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Apakah Tagihan Tinggi Dapat Berpengaruh Pada Layanan</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Mungkin</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dalam Meningkatkan Kualitas</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Sulit Mengerti</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Apakah Tagihan Tinggi Dapat Berpengaruh Pada Layanan</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Mungkin</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dalam Meningkatkan Kualitas</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sulit Mengerti</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Akan kami bantu menyelesaikan masalah ini?</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Menawarkan paket promo</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Apakah Tagihan Tinggi Dapat Berpengaruh Pada Layanan</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Mungkin</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dalam Meningkatkan Kualitas</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Sulit Mengerti</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Akan kami bantu menyelesaikan masalah ini?</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Menawarkan paket promo</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kapabelitas ICONNET Anda Saat Ini Berapa?</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Perlu Perbaikan</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:08:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Apakah Tagihan Tinggi Dapat Berpengaruh Pada Layanan</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Mungkin</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dalam Meningkatkan Kualitas</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Sulit Mengerti</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Akan kami bantu menyelesaikan masalah ini?</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Menawarkan paket promo</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Kapabelitas ICONNET Anda Saat Ini Berapa?</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Perlu Perbaikan</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Apakah Masalah Ini Bisa Menjadi Sebab Terhenti</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Kemungkinan</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Tagihan tinggi</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Apakah Tagihan Tinggi Dapat Berpengaruh Pada Layanan</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Mungkin</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dalam Meningkatkan Kualitas</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Sulit Mengerti</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Akan kami bantu menyelesaikan masalah ini?</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Menawarkan paket promo</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Kapabelitas ICONNET Anda Saat Ini Berapa?</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Perlu Perbaikan</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Apakah Masalah Ini Bisa Menjadi Sebab Terhenti</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Kemungkinan</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu Berkeinginan Untuk Mengaktifkan Layanan?</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:15:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu mengalami kendala saat menggunakan layanan</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Ya, Masalah dengan koneksi</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu mengalami kendala saat menggunakan layanan</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Ya, Masalah dengan koneksi</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Siapakah Bapak/Ibu ingin berbicara dengan?</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Teknisi</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu mengalami kendala saat menggunakan layanan</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Ya, Masalah dengan koneksi</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Siapakah Bapak/Ibu ingin berbicara dengan?</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Teknisi</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin saya bantu mengatur koneksi?</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Lakukan pengaturan</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu mengalami kendala saat menggunakan layanan</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Ya, Masalah dengan koneksi</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Siapakah Bapak/Ibu ingin berbicara dengan?</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Teknisi</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin saya bantu mengatur koneksi?</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Lakukan pengaturan</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Apakah masalah koneksi Bapak/Ibu selesai?</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Sudah selesai</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2025-09-09 02:19:58</t>
         </is>
       </c>
     </row>

--- a/backend/riwayat_simulasi_cs.xlsx
+++ b/backend/riwayat_simulasi_cs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3994,7 +3994,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>Status dihubungi?</t>
@@ -4005,10 +4004,6 @@
           <t>Bisa Dihubungi</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
           <t>2025-09-09 02:19:58</t>
@@ -4026,7 +4021,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
           <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
@@ -4037,10 +4031,6 @@
           <t>Belum gajian</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
           <t>2025-09-09 02:19:58</t>
@@ -4058,7 +4048,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
           <t>Apakah Bapak/Ibu mengalami kendala saat menggunakan layanan</t>
@@ -4069,10 +4058,6 @@
           <t>Ya, Masalah dengan koneksi</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
           <t>2025-09-09 02:19:58</t>
@@ -4090,7 +4075,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>Siapakah Bapak/Ibu ingin berbicara dengan?</t>
@@ -4101,10 +4085,6 @@
           <t>Teknisi</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
           <t>2025-09-09 02:19:58</t>
@@ -4122,7 +4102,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>Apakah Anda ingin saya bantu mengatur koneksi?</t>
@@ -4133,10 +4112,6 @@
           <t>Lakukan pengaturan</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
           <t>2025-09-09 02:19:58</t>
@@ -4154,7 +4129,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
           <t>Apakah masalah koneksi Bapak/Ibu selesai?</t>
@@ -4165,13 +4139,883 @@
           <t>Sudah selesai</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
           <t>2025-09-09 02:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:37:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:41:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:41:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:41:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:49:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:49:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:49:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:49:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Apakah Layanan ICONNET Anda Sedang Aktif?</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Apakah Layanan ICONNET Anda Sedang Aktif?</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dengan Koneksi?</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Saya tidak mengalami masalah</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2025-09-09 08:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Apakah Layanan ICONNET Anda Sedang Aktif?</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Apakah Anda Mengalami Masalah Dengan Koneksi?</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Saya tidak mengalami masalah</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Bagaimana Koneksi Anda Saat Ini?</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Lambat</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:07:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:07:29</t>
         </is>
       </c>
     </row>

--- a/backend/riwayat_simulasi_cs.xlsx
+++ b/backend/riwayat_simulasi_cs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4966,7 +4966,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
           <t>Status dihubungi?</t>
@@ -4977,10 +4976,6 @@
           <t>Tidak Dapat Dihubungi</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
           <t>2025-09-09 09:07:29</t>
@@ -4998,7 +4993,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
@@ -5009,13 +5003,1477 @@
           <t>Nomor tidak aktif</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
           <t>2025-09-09 09:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:20:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:20:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:29:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Nomor tidak aktif</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:34:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:36:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:36:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin bayar sekarang?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:36:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin bayar sekarang?</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Apakah layanan ICONNET Bapak/Ibu sekarang berfungsi normal?</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Tidak, ada masalah</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin bayar sekarang?</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Apakah layanan ICONNET Bapak/Ibu sekarang berfungsi normal?</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Tidak, ada masalah</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Apakah masalah tersebut berlangsung lama?</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Kami kirim teknisi</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin bayar sekarang?</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Apakah layanan ICONNET Bapak/Ibu sekarang berfungsi normal?</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Tidak, ada masalah</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Apakah masalah tersebut berlangsung lama?</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Kami kirim teknisi</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Masalah apa yang Bapak/Ibu alami dengan layanan</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin bayar sekarang?</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Apakah layanan ICONNET Bapak/Ibu sekarang berfungsi normal?</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Tidak, ada masalah</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Apakah masalah tersebut berlangsung lama?</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Kami kirim teknisi</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Masalah apa yang Bapak/Ibu alami dengan layanan</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami memperbaiki masalah koneksi</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Ya, silakan bantu</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu ingin bayar sekarang?</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Apakah layanan ICONNET Bapak/Ibu sekarang berfungsi normal?</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Tidak, ada masalah</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Apakah masalah tersebut berlangsung lama?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Kami kirim teknisi</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Masalah apa yang Bapak/Ibu alami dengan layanan</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami memperbaiki masalah koneksi</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Ya, silakan bantu</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Apakah masalah koneksi tersebut mengganggu kegiatan sehari-hari</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:43:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Tidak diangkat</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:46:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:46:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Blokir/Spam</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:46:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Tidak Dapat Dihubungi</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Blokir/Spam</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:51:08</t>
         </is>
       </c>
     </row>

--- a/backend/riwayat_simulasi_cs.xlsx
+++ b/backend/riwayat_simulasi_cs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6424,7 +6424,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
           <t>Status dihubungi?</t>
@@ -6435,10 +6434,6 @@
           <t>Tidak Dapat Dihubungi</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
           <t>2025-09-09 09:51:08</t>
@@ -6456,7 +6451,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
           <t>Apa alasan pelanggan tidak dapat dihubungi?</t>
@@ -6467,13 +6461,267 @@
           <t>Blokir/Spam</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
           <t>2025-09-09 09:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:00:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>sinyal buruk</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:02:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>sinyal buruk</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>sinyal buruk</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ICON12</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Apakah Bapak/Ibu Sedang Mengalami Kendala Dalam Menggunakan</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:04:08</t>
         </is>
       </c>
     </row>

--- a/backend/riwayat_simulasi_cs.xlsx
+++ b/backend/riwayat_simulasi_cs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:K403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6640,7 +6640,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
           <t>Status dihubungi?</t>
@@ -6651,10 +6650,6 @@
           <t>Bisa Dihubungi</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
           <t>2025-09-09 10:04:08</t>
@@ -6672,7 +6667,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
           <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
@@ -6683,10 +6677,6 @@
           <t>sinyal buruk</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
           <t>2025-09-09 10:04:08</t>
@@ -6704,7 +6694,6 @@
           <t>telecollection</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
           <t>Apakah Bapak/Ibu Sedang Mengalami Kendala Dalam Menggunakan</t>
@@ -6715,13 +6704,4678 @@
           <t>Ya</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
           <t>2025-09-09 10:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:41:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:41:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Belum gajian</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:41:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:42:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:42:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:42:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki rekening bank yang terkait</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki rekening bank yang terkait</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk memastikan pembayaran</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Tidak melakukan apapun</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki rekening bank yang terkait</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk memastikan pembayaran</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Tidak melakukan apapun</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda berencana untuk membayar ICONNET sebelumnya?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Melakukan pembayaran online</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki rekening bank yang terkait</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk memastikan pembayaran</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Tidak melakukan apapun</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda berencana untuk membayar ICONNET sebelumnya?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Melakukan pembayaran online</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan jika terjadi keterlambatan</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Menunda pembayaran</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki rekening bank yang terkait</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk memastikan pembayaran</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Tidak melakukan apapun</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda berencana untuk membayar ICONNET sebelumnya?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Melakukan pembayaran online</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan jika terjadi keterlambatan</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Menunda pembayaran</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Apa langkah-langkah yang Anda ambil untuk memastikan</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Melakukan pengingat</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Apa alasan utama keterlambatan pembayaran ICONNET Anda?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Lupa bayar</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki rekening bank yang terkait</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk memastikan pembayaran</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Tidak melakukan apapun</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda berencana untuk membayar ICONNET sebelumnya?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Melakukan pembayaran online</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan jika terjadi keterlambatan</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Menunda pembayaran</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Apa langkah-langkah yang Anda ambil untuk memastikan</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Melakukan pengingat</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Pertanyaan tidak tersedia</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Jawaban 1</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:44:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:13:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda mengetahui tentang promo ICONNET terbaru?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Sosial media</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:13:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda mengetahui tentang promo ICONNET terbaru?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Sosial media</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Apakah Anda pernah mengalami gangguan internet?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Sedikit gangguan</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:30:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:32:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ketika Anda tidak dapat menggunakan internet ICONNET, apa yang biasanya terjadi?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Tidak ada sinyal</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>2025-09-09 11:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:35:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>tidak karena saya mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>tidak karena saya mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Apa alasannya Anda ingin berhenti berlangganan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>internetnya jelek</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>tidak karena saya mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Apa alasannya Anda ingin berhenti berlangganan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>internetnya jelek</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki pilihan lain untuk internet yang lebih baik?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Tidak, saya hanya berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>tidak karena saya mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Apa alasannya Anda ingin berhenti berlangganan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>internetnya jelek</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki pilihan lain untuk internet yang lebih baik?</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Tidak, saya hanya berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari ICONNET dalam menyelesaikan masalah koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tidak ada
+</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>tidak karena saya mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Apa alasannya Anda ingin berhenti berlangganan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>internetnya jelek</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki pilihan lain untuk internet yang lebih baik?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Tidak, saya hanya berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari ICONNET dalam menyelesaikan masalah koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tidak ada
+</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Apa yang akan Anda lakukan jika ICONNET dapat memperbaiki koneksi lambat dan</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Tidak akan kembali</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>tidak karena saya mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Apa alasannya Anda ingin berhenti berlangganan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>internetnya jelek</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Apakah Anda memiliki pilihan lain untuk internet yang lebih baik?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Tidak, saya hanya berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari ICONNET dalam menyelesaikan masalah koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tidak ada
+</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Apa yang akan Anda lakukan jika ICONNET dapat memperbaiki koneksi lambat dan</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Tidak akan kembali</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Apa yang membuat Anda tidak ingin kembali menggunakan layanan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Internet jelek</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:39:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>saya memang mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>saya memang mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Apa yang membuat Anda kecewa dengan layanan internet ICONNET sebelum Anda memutuskan</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>internet jelek</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>saya memang mau berhenti berlangganan</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Apa yang membuat Anda kecewa dengan layanan internet ICONNET sebelum Anda memutuskan</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>internet jelek</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Apa masalah khusus yang Anda alami dengan internet ICONNET yang membuat Anda</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Kecepatan internet tidak sesuai</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:41:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>winback</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari kami dalam mengembalikan keanggotaan ICONNET?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Dapat menggunakan promo</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:42:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Apakah koneksi lambat pada ICONNET mempengaruhi aktivitas Anda?</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Apakah koneksi lambat pada ICONNET mempengaruhi aktivitas Anda?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk meningkatkan kecepatan koneksi ICONNET?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Mengurangi penggunaan aplikasi berat</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Apakah koneksi lambat pada ICONNET mempengaruhi aktivitas Anda?</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk meningkatkan kecepatan koneksi ICONNET?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Mengurangi penggunaan aplikasi berat</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda memperhatikan performa koneksi ICONNET setelah mengurangi penggunaan aplikasi berat?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Tidak ada perbedaan</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Apakah koneksi lambat pada ICONNET mempengaruhi aktivitas Anda?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk meningkatkan kecepatan koneksi ICONNET?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Mengurangi penggunaan aplikasi berat</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda memperhatikan performa koneksi ICONNET setelah mengurangi penggunaan aplikasi berat?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Tidak ada perbedaan</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari layanan internet ICONNET untuk meningkatkan pengalaman Anda?</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Pengurangan biaya</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Apakah koneksi lambat pada ICONNET mempengaruhi aktivitas Anda?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk meningkatkan kecepatan koneksi ICONNET?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Mengurangi penggunaan aplikasi berat</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda memperhatikan performa koneksi ICONNET setelah mengurangi penggunaan aplikasi berat?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Tidak ada perbedaan</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari layanan internet ICONNET untuk meningkatkan pengalaman Anda?</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Pengurangan biaya</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan jika koneksi internet ICONNET tidak memuaskan setelah pengurangan</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Pindah ke provider lain</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda hadapi saat menggunakan jaringan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Apakah koneksi lambat pada ICONNET mempengaruhi aktivitas Anda?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Sedikit</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan untuk meningkatkan kecepatan koneksi ICONNET?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Mengurangi penggunaan aplikasi berat</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Bagaimana Anda memperhatikan performa koneksi ICONNET setelah mengurangi penggunaan aplikasi berat?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Tidak ada perbedaan</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari layanan internet ICONNET untuk meningkatkan pengalaman Anda?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Pengurangan biaya</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan jika koneksi internet ICONNET tidak memuaskan setelah pengurangan</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Pindah ke provider lain</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Apa yang Anda lakukan sebelum pindah ke provider lain?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Tidak mencari alternatif</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:58:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:58:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:59:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:59:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Iya, tolong bantu</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>2025-09-09 13:59:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Iya, tolong bantu</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Apa langkah yang Anda inginkan kami lakukan untuk memperbaiki koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Iya, tolong bantu</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Apa langkah yang Anda inginkan kami lakukan untuk memperbaiki koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Apakah Anda telah menerima kunjungan teknisi dan koneksi internet ICONNET Anda telah</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Iya, tolong bantu</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Apa langkah yang Anda inginkan kami lakukan untuk memperbaiki koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Apakah Anda telah menerima kunjungan teknisi dan koneksi internet ICONNET Anda telah</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Apa langkah yang kami lakukan selanjutnya untuk memperbaiki koneksi internet Anda?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Iya, tolong bantu</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Apa langkah yang Anda inginkan kami lakukan untuk memperbaiki koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Apakah Anda telah menerima kunjungan teknisi dan koneksi internet ICONNET Anda telah</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Apa langkah yang kami lakukan selanjutnya untuk memperbaiki koneksi internet Anda?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari kunjungan teknisi ICONNET untuk memperbaiki koneksi internet</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Koneksi stabil</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Status dihubungi?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Bisa Dihubungi</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Apa masalah yang Anda alami saat menggunakan internet ICONNET?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Koneksi lambat</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Apakah Anda ingin kami bantu memperbaiki koneksi lambat tersebut?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Iya, tolong bantu</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Apa langkah yang Anda inginkan kami lakukan untuk memperbaiki koneksi lambat Anda?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Apakah Anda telah menerima kunjungan teknisi dan koneksi internet ICONNET Anda telah</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Apa langkah yang kami lakukan selanjutnya untuk memperbaiki koneksi internet Anda?</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Kunjungan teknisi ke lokasi saya</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Apa yang Anda harapkan dari kunjungan teknisi ICONNET untuk memperbaiki koneksi internet</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Koneksi stabil</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ICON12345</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>telecollection</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Apa langkah yang kami harus lakukan untuk memastikan koneksi internet Anda tetap</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sudah baik
+</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:04:48</t>
         </is>
       </c>
     </row>
